--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ450.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ450.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8188E7F6-F6CB-4C07-B71C-1BE59BAE0DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19404" windowHeight="6816" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -278,10 +279,6 @@
     <t>CustId= , AND ApplyDate=</t>
   </si>
   <si>
-    <t>A:新增;C:異動;D:刪除</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>NVARCHAR2</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -392,12 +389,18 @@
   <si>
     <t>custRcEq</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+D:刪除</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -644,8 +647,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -736,6 +739,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -771,6 +791,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -946,11 +983,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -997,10 +1034,10 @@
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1050,7 +1087,7 @@
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="11"/>
@@ -1063,7 +1100,7 @@
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="11"/>
@@ -1076,7 +1113,7 @@
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="11"/>
@@ -1106,12 +1143,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>20</v>
@@ -1124,7 +1161,7 @@
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="14" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1157,14 +1194,14 @@
         <v>23</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="15">
         <v>3</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1172,13 +1209,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="15">
         <v>8</v>
@@ -1191,20 +1228,20 @@
         <v>5</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>64</v>
       </c>
       <c r="E15" s="20">
         <v>3</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1212,13 +1249,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="15">
         <v>8</v>
@@ -1231,7 +1268,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>40</v>
@@ -1250,7 +1287,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>41</v>
@@ -1288,7 +1325,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>43</v>
@@ -1301,7 +1338,7 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1328,10 +1365,10 @@
         <v>12</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>68</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>69</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>21</v>
@@ -1931,10 +1968,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
@@ -1960,7 +1997,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>49</v>
@@ -1971,7 +2008,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
@@ -1982,7 +2019,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>52</v>
@@ -1993,32 +2030,32 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
